--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N2">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q2">
-        <v>433.4894137888193</v>
+        <v>635.1409433221688</v>
       </c>
       <c r="R2">
-        <v>433.4894137888193</v>
+        <v>5716.268489899519</v>
       </c>
       <c r="S2">
-        <v>0.001016681379144416</v>
+        <v>0.001342643854372281</v>
       </c>
       <c r="T2">
-        <v>0.001016681379144416</v>
+        <v>0.001342643854372281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N3">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q3">
-        <v>1393.152536018291</v>
+        <v>1705.484612822576</v>
       </c>
       <c r="R3">
-        <v>1393.152536018291</v>
+        <v>15349.36151540318</v>
       </c>
       <c r="S3">
-        <v>0.00326742060272695</v>
+        <v>0.003605276054406734</v>
       </c>
       <c r="T3">
-        <v>0.00326742060272695</v>
+        <v>0.003605276054406734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N4">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q4">
-        <v>1849.570788849586</v>
+        <v>2439.551140255469</v>
       </c>
       <c r="R4">
-        <v>1849.570788849586</v>
+        <v>21955.96026229922</v>
       </c>
       <c r="S4">
-        <v>0.004337877974913818</v>
+        <v>0.005157041724878153</v>
       </c>
       <c r="T4">
-        <v>0.004337877974913818</v>
+        <v>0.005157041724878153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H5">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N5">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q5">
-        <v>481.7226393067954</v>
+        <v>772.2014893027609</v>
       </c>
       <c r="R5">
-        <v>481.7226393067954</v>
+        <v>6949.813403724847</v>
       </c>
       <c r="S5">
-        <v>0.00112980483886537</v>
+        <v>0.001632380332035329</v>
       </c>
       <c r="T5">
-        <v>0.00112980483886537</v>
+        <v>0.001632380332035329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H6">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N6">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q6">
-        <v>42999.81338750438</v>
+        <v>52112.4033568519</v>
       </c>
       <c r="R6">
-        <v>42999.81338750438</v>
+        <v>469011.6302116672</v>
       </c>
       <c r="S6">
-        <v>0.1008493130101163</v>
+        <v>0.1101620023701666</v>
       </c>
       <c r="T6">
-        <v>0.1008493130101163</v>
+        <v>0.1101620023701666</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H7">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N7">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q7">
-        <v>138193.2226338028</v>
+        <v>139932.5661441929</v>
       </c>
       <c r="R7">
-        <v>138193.2226338028</v>
+        <v>1259393.095297736</v>
       </c>
       <c r="S7">
-        <v>0.3241105127522026</v>
+        <v>0.29580772887561</v>
       </c>
       <c r="T7">
-        <v>0.3241105127522026</v>
+        <v>0.29580772887561</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H8">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N8">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q8">
-        <v>183467.4532703958</v>
+        <v>200161.6717790072</v>
       </c>
       <c r="R8">
-        <v>183467.4532703958</v>
+        <v>1801455.046011065</v>
       </c>
       <c r="S8">
-        <v>0.4302941144254319</v>
+        <v>0.4231278762935095</v>
       </c>
       <c r="T8">
-        <v>0.4302941144254319</v>
+        <v>0.4231278762935095</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H9">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N9">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q9">
-        <v>47784.28938709771</v>
+        <v>63358.02455565402</v>
       </c>
       <c r="R9">
-        <v>47784.28938709771</v>
+        <v>570222.2210008862</v>
       </c>
       <c r="S9">
-        <v>0.1120705504914072</v>
+        <v>0.1339344647659841</v>
       </c>
       <c r="T9">
-        <v>0.1120705504914072</v>
+        <v>0.1339344647659841</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H10">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N10">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q10">
-        <v>350.495994475832</v>
+        <v>557.0058105939911</v>
       </c>
       <c r="R10">
-        <v>350.495994475832</v>
+        <v>5013.052295345919</v>
       </c>
       <c r="S10">
-        <v>0.0008220333408692651</v>
+        <v>0.001177471608950154</v>
       </c>
       <c r="T10">
-        <v>0.0008220333408692651</v>
+        <v>0.001177471608950154</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H11">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N11">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q11">
-        <v>1126.427469820839</v>
+        <v>1495.675643664115</v>
       </c>
       <c r="R11">
-        <v>1126.427469820839</v>
+        <v>13461.08079297703</v>
       </c>
       <c r="S11">
-        <v>0.002641858825372641</v>
+        <v>0.003161754461294916</v>
       </c>
       <c r="T11">
-        <v>0.002641858825372641</v>
+        <v>0.003161754461294916</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H12">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N12">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q12">
-        <v>1495.462478138157</v>
+        <v>2139.43719838926</v>
       </c>
       <c r="R12">
-        <v>1495.462478138157</v>
+        <v>19254.93478550334</v>
       </c>
       <c r="S12">
-        <v>0.003507372513306442</v>
+        <v>0.004522621689617231</v>
       </c>
       <c r="T12">
-        <v>0.003507372513306442</v>
+        <v>0.004522621689617232</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H13">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N13">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O13">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P13">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q13">
-        <v>389.4947607823511</v>
+        <v>677.2051479490232</v>
       </c>
       <c r="R13">
-        <v>389.4947607823511</v>
+        <v>6094.846331541208</v>
       </c>
       <c r="S13">
-        <v>0.0009134988259589617</v>
+        <v>0.001431564662304917</v>
       </c>
       <c r="T13">
-        <v>0.0009134988259589617</v>
+        <v>0.001431564662304917</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H14">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N14">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O14">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P14">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q14">
-        <v>668.5166390590812</v>
+        <v>808.292914394311</v>
       </c>
       <c r="R14">
-        <v>668.5166390590812</v>
+        <v>7274.636229548799</v>
       </c>
       <c r="S14">
-        <v>0.001567900845926278</v>
+        <v>0.001708675098738989</v>
       </c>
       <c r="T14">
-        <v>0.001567900845926278</v>
+        <v>0.001708675098738989</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H15">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N15">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P15">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q15">
-        <v>2148.485341165222</v>
+        <v>2170.433417411994</v>
       </c>
       <c r="R15">
-        <v>2148.485341165222</v>
+        <v>19533.90075670795</v>
       </c>
       <c r="S15">
-        <v>0.005038935139466967</v>
+        <v>0.004588145544467417</v>
       </c>
       <c r="T15">
-        <v>0.005038935139466967</v>
+        <v>0.004588145544467417</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H16">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N16">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O16">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P16">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q16">
-        <v>2852.362267988261</v>
+        <v>3104.620984843115</v>
       </c>
       <c r="R16">
-        <v>2852.362267988261</v>
+        <v>27941.58886358804</v>
       </c>
       <c r="S16">
-        <v>0.006689767990160307</v>
+        <v>0.006562953198468969</v>
       </c>
       <c r="T16">
-        <v>0.006689767990160307</v>
+        <v>0.006562953198468969</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H17">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N17">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O17">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P17">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q17">
-        <v>742.9007250104039</v>
+        <v>982.718873425791</v>
       </c>
       <c r="R17">
-        <v>742.9007250104039</v>
+        <v>8844.469860832118</v>
       </c>
       <c r="S17">
-        <v>0.001742357044130531</v>
+        <v>0.002077399465194792</v>
       </c>
       <c r="T17">
-        <v>0.001742357044130531</v>
+        <v>0.002077399465194792</v>
       </c>
     </row>
   </sheetData>
